--- a/resources/Vehicle-Load_example.xlsx
+++ b/resources/Vehicle-Load_example.xlsx
@@ -136,7 +136,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -159,13 +159,25 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
+      <name val="Times new roman"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -212,36 +224,56 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -265,173 +297,178 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="K2:K5 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.00390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="12.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="9.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="15.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="17.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="16.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="17.64"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="20.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="18.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="11.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="17.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="18.2"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="13" style="1" width="20.98"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="2" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E2" s="0" t="n">
+      <c r="D2" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="G2" s="1" t="n">
         <v>1000000</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="H2" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="I2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="0" t="n">
+      <c r="J2" s="1" t="n">
         <v>900</v>
       </c>
-      <c r="K2" s="0" t="n">
+      <c r="K2" s="1" t="n">
         <v>300</v>
       </c>
-      <c r="L2" s="0" t="s">
+      <c r="L2" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="2" t="n">
+      <c r="D3" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="G3" s="1" t="n">
         <v>600000</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="H3" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="I3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="0" t="n">
+      <c r="J3" s="1" t="n">
         <v>600</v>
       </c>
-      <c r="K3" s="0" t="n">
+      <c r="K3" s="1" t="n">
         <v>300</v>
       </c>
-      <c r="L3" s="0" t="s">
+      <c r="L3" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="2" t="n">
+      <c r="D4" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="G4" s="1" t="n">
         <v>5000</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="H4" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="I4" s="0" t="s">
+      <c r="I4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="0" t="n">
+      <c r="J4" s="1" t="n">
         <v>150</v>
       </c>
-      <c r="K4" s="0" t="n">
+      <c r="K4" s="1" t="n">
         <v>160</v>
       </c>
-      <c r="L4" s="0" t="s">
+      <c r="L4" s="1" t="s">
         <v>21</v>
       </c>
     </row>
@@ -454,195 +491,200 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J24" activeCellId="0" sqref="J24"/>
+      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2:K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="6" style="0" width="14.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="4.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="13.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="5" width="14.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="5" width="17.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="5" width="12.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="5" width="11.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="5" width="16.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="5" width="8.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="5" width="13.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="5" width="14.44"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="12" style="5" width="11.54"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="n">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="5" t="n">
         <v>1000</v>
       </c>
-      <c r="D2" s="5" t="n">
+      <c r="D2" s="9" t="n">
         <v>33000000000</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2" s="5" t="n">
         <v>5890</v>
       </c>
-      <c r="F2" s="6" t="n">
+      <c r="F2" s="10" t="n">
         <v>2350</v>
       </c>
-      <c r="G2" s="6" t="n">
+      <c r="G2" s="10" t="n">
         <v>2360</v>
       </c>
-      <c r="I2" s="2" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J2" s="0" t="s">
+      <c r="I2" s="11" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="2" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="n">
+      <c r="K2" s="11" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="C3" s="7" t="n">
+      <c r="C3" s="12" t="n">
         <v>600</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="5" t="n">
         <v>18000000000</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3" s="5" t="n">
         <v>3246</v>
       </c>
-      <c r="F3" s="6" t="n">
+      <c r="F3" s="10" t="n">
         <v>2350</v>
       </c>
-      <c r="G3" s="6" t="n">
+      <c r="G3" s="10" t="n">
         <v>2360</v>
       </c>
-      <c r="I3" s="2" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J3" s="0" t="s">
+      <c r="I3" s="11" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="K3" s="2" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="n">
+      <c r="K3" s="11" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="C4" s="7" t="n">
+      <c r="C4" s="12" t="n">
         <v>10</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="5" t="n">
         <v>125000</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4" s="5" t="n">
         <v>50</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4" s="5" t="n">
         <v>50</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="G4" s="5" t="n">
         <v>50</v>
       </c>
-      <c r="I4" s="2" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="0" t="s">
+      <c r="I4" s="11" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="K4" s="2" t="n">
+      <c r="K4" s="11" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="n">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="C5" s="7" t="n">
+      <c r="C5" s="12" t="n">
         <v>10</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5" s="5" t="n">
         <v>125000</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5" s="5" t="n">
         <v>50</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5" s="5" t="n">
         <v>50</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="G5" s="5" t="n">
         <v>50</v>
       </c>
-      <c r="I5" s="2" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J5" s="0" t="s">
+      <c r="I5" s="11" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="K5" s="2" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="7"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="7"/>
+      <c r="K5" s="11" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="12"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="12"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
